--- a/UK_Covid_cases_december12.xlsx
+++ b/UK_Covid_cases_december12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jasmina/covasim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/Covid-19-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDF130B-7651-824E-8B17-C3A1F6BA3A53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C2875-5A70-7045-83F4-99A3F2D69AC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4000" yWindow="460" windowWidth="16500" windowHeight="14040" xr2:uid="{89CAA713-5904-1B4E-B911-FFEBE3A898C3}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,13 +401,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BED666-324D-1C41-98A1-291EC231EA07}">
   <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D325" sqref="D325"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>43851</v>
       </c>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43852</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43853</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>43854</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43855</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>43856</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43857</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43858</v>
       </c>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43859</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>43860</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>43861</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>43862</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>43863</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>43864</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>43865</v>
       </c>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>43866</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43867</v>
       </c>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>43868</v>
       </c>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>43869</v>
       </c>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>43870</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>43871</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>43872</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43873</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>43874</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>43875</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>43876</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>43877</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>43878</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>43879</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>43880</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>43881</v>
       </c>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>43882</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>43883</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>43884</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>43885</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>43886</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>43887</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>43888</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>43889</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>43890</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>43891</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>43892</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>43893</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43894</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>43895</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>43896</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="2">
-        <v>64026</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>43897</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>43898</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>43899</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>43900</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>43901</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>43902</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>43903</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>43904</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>43905</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>43906</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>43907</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>43908</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>43909</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>43910</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>43911</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>43912</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>43913</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>43914</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>43915</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>43916</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>43917</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>43918</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>43919</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>43920</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>43921</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>43922</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>43923</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>43924</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>43925</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>43926</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>43927</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>43928</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>43929</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>43930</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>43931</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>43932</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>43933</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>43934</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>43935</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>43936</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>43937</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>43938</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>43939</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>43940</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>43941</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>532229</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>43942</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>554992</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>43943</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>578066</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>43944</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>606093</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>43945</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>634319</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>43946</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>663377</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>43947</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>694987</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>43948</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>726553</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>43949</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>771817</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>43950</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>839597</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>43951</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>922684</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>43952</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>996826</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>43953</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>1060387</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>43954</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1128590</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>43955</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>1208190</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>43956</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>1270344</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>43957</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>1347190</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>43958</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1424655</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>43959</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1501622</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>43960</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>1578774</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>43961</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>1655281</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>43962</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>1725696</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>43963</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1800289</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>43964</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1884165</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>43965</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1968871</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>43966</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>2060212</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>43967</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>2151572</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>43968</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2232850</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>43969</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>2302976</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>43970</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>2380736</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>43971</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>2467369</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>43972</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>2573033</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>43973</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>2664230</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>43974</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>2756068</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>43975</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>2815535</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>43976</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>2963880</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>43977</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>3041801</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>43978</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>3124473</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>43979</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>3226227</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>43980</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>3331686</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>43981</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>3428684</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>43982</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>3510927</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>43983</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>3581534</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>43984</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>3674232</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>43985</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>3776246</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>43986</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>3875730</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>43987</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>3978661</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>43988</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>4072267</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>43989</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>4159303</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>43990</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>4264755</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>43991</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>4359163</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>43992</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>4460271</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>43993</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>4563309</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>43994</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>4663013</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>43995</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>4762842</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>43996</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>4833223</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>43997</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>4904625</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>43998</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>4985487</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>43999</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>5071925</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>44000</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>5165408</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>44001</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>5255955</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>44002</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>5339704</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>44003</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>5400371</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>44004</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>5466497</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>44005</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>5540143</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>44006</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>5631278</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>44007</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>5782973</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>44008</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>5888944</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>44009</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>5989575</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>44010</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>6073492</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>44011</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>6151618</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>44012</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>6272682</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>44013</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>6396219</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>44014</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>6532368</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>44015</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>6671841</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>44016</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>6786243</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>44017</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>6879738</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>44018</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>6957311</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>44019</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>7064288</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>44020</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>7191497</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>44021</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>7329538</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>44022</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>7463671</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>44023</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>7590220</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>44024</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>7685301</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>44025</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>7770238</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>44026</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>7888890</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>44027</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>8030203</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>44028</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>8181475</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>44029</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>8346355</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>44030</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>8482133</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>44031</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>8596355</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>44032</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>8689851</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>44033</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>8822476</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>44034</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>8959710</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>44035</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>9100816</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>44036</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>9248643</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>44037</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>9387703</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>44038</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>9505596</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>44039</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>9595161</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>44040</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>9742978</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>44041</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>9900604</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>44042</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>10070992</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>44043</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>10235737</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>44044</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>10381748</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>44045</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>10528542</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>44046</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>10673541</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>44047</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>10824501</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>44048</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>10986604</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>44049</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>11162162</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>44050</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>11335375</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>44051</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>11496026</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>44052</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>11659552</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>44053</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>11812650</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>44054</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>11970337</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>44055</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>12148434</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>44056</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>12313091</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>44057</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>12483532</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>44058</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>12663729</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>44059</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>12833817</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>44060</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>12980099</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>44061</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>13137301</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>44062</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>13317181</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>44063</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>13492242</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>44064</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>13674120</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>44065</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>13851399</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>44066</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>14017466</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>44067</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>14165419</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>44068</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>14366169</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>44069</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>14573699</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>44070</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>14775686</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>44071</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>14965319</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>44072</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>15145352</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>44073</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>15326390</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>44074</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>15506758</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>44075</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>15677964</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>44076</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>15886354</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>44077</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>16085952</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>44078</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>16288845</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>44079</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>16477899</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>44080</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>16670772</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>44081</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>16872752</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>44082</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>17076613</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>44083</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>17302598</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>44084</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>17544471</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>44085</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>17825744</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>44086</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>18054492</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>44087</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>18279872</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>44088</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>18496398</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>44089</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>18734356</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>44090</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>18979747</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>44091</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>19221203</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>44092</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>19488409</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>44093</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>19739363</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>44094</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>19974148</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>44095</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>20180930</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>44096</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>20391992</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>44097</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>20652193</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>44098</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>20927096</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>44099</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>21217136</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>44100</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>21472624</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>44101</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>21736150</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>44102</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>21963666</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>44103</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>22209600</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>44104</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>22468246</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256" s="1">
         <v>44105</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>22738421</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257" s="1">
         <v>44106</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>23008415</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258" s="1">
         <v>44107</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>23295217</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259" s="1">
         <v>44108</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>23545565</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="1">
         <v>44109</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>23818928</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261" s="1">
         <v>44110</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>24081522</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262" s="1">
         <v>44111</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>24337590</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263" s="1">
         <v>44112</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>24640915</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264" s="1">
         <v>44113</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>24937474</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265" s="1">
         <v>44114</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>25217079</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>44115</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>25476034</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267" s="1">
         <v>44116</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>25697164</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268" s="1">
         <v>44117</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>25999507</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269" s="1">
         <v>44118</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>26301012</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270" s="1">
         <v>44119</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>26605703</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271" s="1">
         <v>44120</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>26917855</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272" s="1">
         <v>44121</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>27226271</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="1">
         <v>44122</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>27533164</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="1">
         <v>44123</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>27795752</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" s="1">
         <v>44124</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>28078061</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" s="1">
         <v>44125</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>28399160</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="1">
         <v>44126</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>28744122</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="1">
         <v>44127</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>29090966</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="1">
         <v>44128</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>29408862</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="1">
         <v>44129</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>29729976</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" s="1">
         <v>44130</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>29994334</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" s="1">
         <v>44131</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>30282279</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="1">
         <v>44132</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>30591229</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="1">
         <v>44133</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>30941157</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285" s="1">
         <v>44134</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>31249759</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286" s="1">
         <v>44135</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>31544773</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="1">
         <v>44136</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>31817159</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="1">
         <v>44137</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>32038760</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="1">
         <v>44138</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>32309598</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="1">
         <v>44139</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>32622996</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="1">
         <v>44140</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>32970741</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="1">
         <v>44141</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>33325865</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="1">
         <v>44142</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>33655295</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="1">
         <v>44143</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>33941724</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="1">
         <v>44144</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>34185815</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="1">
         <v>44145</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>34490306</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297" s="1">
         <v>44146</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>34871387</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298" s="1">
         <v>44147</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>35252165</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299" s="1">
         <v>44148</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>35634389</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300" s="1">
         <v>44149</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>35978280</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301" s="1">
         <v>44150</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>36260720</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>44151</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>36513502</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303" s="1">
         <v>44152</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>36797786</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304" s="1">
         <v>44153</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>37172632</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305" s="1">
         <v>44154</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>37575856</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306" s="1">
         <v>44155</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>37967604</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307" s="1">
         <v>44156</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>38336683</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308" s="1">
         <v>44157</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>38620055</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309" s="1">
         <v>44158</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>38834497</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310" s="1">
         <v>44159</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>39149830</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311" s="1">
         <v>44160</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>39504682</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312" s="1">
         <v>44161</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>39888901</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313" s="1">
         <v>44162</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>40223088</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314" s="1">
         <v>44163</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>40534403</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" s="1">
         <v>44164</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>40756444</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" s="1">
         <v>44165</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>40989701</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317" s="1">
         <v>44166</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>41307854</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" s="1">
         <v>44167</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>41660895</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" s="1">
         <v>44168</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>42052539</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" s="1">
         <v>44169</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>228596</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>44170</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>229946</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>44171</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>231395</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>44172</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>233018</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>44173</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>234747</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>44174</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>62033</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>44175</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>62566</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
         <v>44176</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>63082</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>44177</v>
       </c>
